--- a/data/trans_camb/P31_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P31_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>25,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>12,33</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>9,09</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18,51</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,03</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 11,24</t>
+          <t>-18,69; 18,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 30,05</t>
+          <t>-1,03; 60,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 14,94</t>
+          <t>-21,49; 17,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 17,09</t>
+          <t>-18,79; 18,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 9,49</t>
+          <t>-8,71; 30,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 18,12</t>
+          <t>-10,08; 33,01</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-14,21; 12,67</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3,43; 40,27</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-11,0; 24,25</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,48%</t>
+          <t>-0,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>150,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>-2,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>42,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>31,3%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-0,5%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>79,59%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>21,63%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-72,55; 86,15</t>
+          <t>-71,01; 213,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,99; 200,58</t>
+          <t>-13,42; 1158,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-35,48; 69,24</t>
+          <t>-74,99; 186,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,54; 74,45</t>
+          <t>-51,1; 91,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,86; 47,73</t>
+          <t>-26,29; 159,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 89,0</t>
+          <t>-30,6; 185,12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-46,11; 72,51</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 253,98</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-39,34; 136,53</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-7,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,29</t>
+          <t>-9,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,55</t>
+          <t>13,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7,75</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-3,52</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 11,39</t>
+          <t>-13,99; 14,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 2,94</t>
+          <t>-23,22; 1,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 20,08</t>
+          <t>-25,18; -0,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 15,74</t>
+          <t>3,29; 22,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 13,16</t>
+          <t>-3,35; 14,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 6,85</t>
+          <t>-6,75; 11,16</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 15,42</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-10,05; 6,03</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-11,79; 3,75</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-22,3%</t>
+          <t>-35,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>52,46%</t>
+          <t>-42,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>60,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>29,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>12,25%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>35,24%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-4,5%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-16,01%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 75,09</t>
+          <t>-47,1; 92,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-50,94; 21,44</t>
+          <t>-70,17; 15,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,06; 102,29</t>
+          <t>-71,66; 5,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 77,45</t>
+          <t>11,93; 129,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 70,28</t>
+          <t>-12,44; 85,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 36,73</t>
+          <t>-25,27; 64,91</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-6,41; 80,77</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-35,28; 34,44</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-43,52; 20,59</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,26</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,38</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,37</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4,48</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,28</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 13,52</t>
+          <t>-4,92; 10,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 12,45</t>
+          <t>-5,15; 11,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 15,82</t>
+          <t>-6,77; 10,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 13,23</t>
+          <t>-2,13; 15,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,93; 12,34</t>
+          <t>-5,58; 10,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 10,59</t>
+          <t>-8,65; 8,35</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,82; 10,57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,65; 8,55</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 6,22</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>59,8%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>51,42%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>32,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>48,74%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>-2,22%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>27,49%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13,97%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 196,2</t>
+          <t>-35,42; 141,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 166,56</t>
+          <t>-35,51; 161,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,32; 105,89</t>
+          <t>-45,33; 132,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 84,66</t>
+          <t>-10,76; 95,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,59; 96,98</t>
+          <t>-23,39; 68,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,43; 84,56</t>
+          <t>-36,1; 54,49</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-9,47; 77,31</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-19,13; 65,19</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-31,02; 47,13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 8,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 7,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,26; 14,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 11,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,11; 9,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 7,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>40,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 67,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,01; 54,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,48; 70,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,54; 55,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,89; 54,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 39,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4,14</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8,64</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5,7</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3,32</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5,41</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-6,56; 9,47</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; 10,54</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; 1,61</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 14,26</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 11,61</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 10,68</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 10,6</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 8,36</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,9; 4,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>11,29%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4,89%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-23,55%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>39,38%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>25,97%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>15,12%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>27,17%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>16,15%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-2,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-31,43; 65,7</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-38,06; 73,09</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-57,12; 11,48</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>9,41; 75,3</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 61,32</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-14,63; 53,91</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 58,71</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-9,85; 48,03</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-25,15; 26,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
